--- a/Qui est-ce.xlsx
+++ b/Qui est-ce.xlsx
@@ -1,28 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yohann/Dropbox/workspace/cesure/vendome/vendomeCesure/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$AE$23</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$5:$AE$23</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -32,56 +18,129 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment authorId="0" ref="F55">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Très bon
-	-Marin Boyet
-C'est super simple, c'est un 1 même
-	-Remi Gerard</t>
-        </r>
+        <t xml:space="preserve">C'est raciste, il est de Casablanca il me semble ;)
+	-Marin Boyet</t>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment authorId="0" ref="F44">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Long et pas franchement personnel
+        <t xml:space="preserve">okay pour mettre la même description aux deux
 	-Marin Boyet</t>
-        </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0">
+    <comment authorId="0" ref="F42">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>C'est pas un peu indélicat quand même ?
+        <t xml:space="preserve">ça me paraît impossible
 	-Marin Boyet</t>
-        </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment authorId="0" ref="G35">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Réf aux rushs zarb de peluche et de déguisement
+        <t xml:space="preserve">Ok pour l'idée de fond mais la tournure est pas fofolle non ?
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G33">
+      <text>
+        <t xml:space="preserve">C'est pas un peu indélicat quand même ?
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F24">
+      <text>
+        <t xml:space="preserve">Un peu tiré par les cheveux quand même, sans l'anecdote je suggère juste de trouver une blague sur son caractère étourdi
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F75">
+      <text>
+        <t xml:space="preserve">?? (de Castries ?) impossible aussi
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F71">
+      <text>
+        <t xml:space="preserve">j'ai pas compris e_e ?
+	-Marin Boyet
+Le lien avec le stage ou avec le pôle interne ? La Birmanie c'est une des plus dure dictatures du monde,  ça aurait permis de dynamiser le pôle interne
+	-Yohann Roiron</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F67">
+      <text>
+        <t xml:space="preserve">Yep okay beaucoup mieux :)
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F73">
+      <text>
+        <t xml:space="preserve">léger aussi
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G67">
+      <text>
+        <t xml:space="preserve">c'est de très très mauvais goût
+	-Marin Boyet
+en vrai je ne trouve pas
+	-Remi Gerard</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G45">
+      <text>
+        <t xml:space="preserve">pas très shark son stage non ?
+	-Marin Boyet
+Je voulais faire un jeu de mots avec les requins de la Réunion dont il parle dans la vidéo PR
+	-Adrien Tardieu</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F27">
+      <text>
+        <t xml:space="preserve">rajouter un compositeur anglais du coup :)
+	-Marin Boyet
+Shakespeare n'était pas compositeur ...
+	-Marin Boyet
+J'ai cherché, il n'y a pas de compositeurs d'opéras anglais connus, c'était pas leur spécialités les opéras :(
+	-Adrien Tardieu
+Henry Purcell
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F19">
+      <text>
+        <t xml:space="preserve">Pareil, on doit pouvoir trouver mieux sur Charles !
+	-Marin Boyet
+genre ? :)
+	-Adrien Tardieu
+finalement oK
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G16">
+      <text>
+        <t xml:space="preserve">Long et pas franchement personnel
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F12">
+      <text>
+        <t xml:space="preserve">C'est un peu gratuit
+	-Adrien Tardieu
+Mais tellement vrai :p ?
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G64">
+      <text>
+        <t xml:space="preserve">Pas ouf mais idée des vacances aux Maldives
+	-Yohann Roiron</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H38">
+      <text>
+        <t xml:space="preserve">Réf aux rushs zarb de peluche et de déguisement
 	-Yohann Roiron
 ah, au début je croyais que tu avais confondu PR et Vidéo Lucky...
 	-Adrien Tardieu
@@ -89,252 +148,19 @@
 	-Yohann Roiron
 :p
 	-Remi Gerard</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="0">
+    <comment authorId="0" ref="F14">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Pas trop osé ?
-	-Yohann Roiron
-Pas mal, on peut peut-être trouver encore mieux
-	-Adrien Tardieu
-Je trouve celui là rigolo en tous cas :p
-	-Marin Boyet</t>
-        </r>
+        <t xml:space="preserve">Très bon
+	-Marin Boyet
+C'est super simple, c'est un 1 même
+	-Remi Gerard</t>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment authorId="0" ref="F70">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>C'est un peu gratuit
-	-Adrien Tardieu
-Mais tellement vrai :p ?
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Pareil, on doit pouvoir trouver mieux sur Charles !
-	-Marin Boyet
-genre ? :)
-	-Adrien Tardieu
-finalement oK
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Un peu tiré par les cheveux quand même, sans l'anecdote je suggère juste de trouver une blague sur son caractère étourdi
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Ok pour l'idée de fond mais la tournure est pas fofolle non ?
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>okay pour mettre la même description aux deux
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Sinon le choisit faudra vérifier qu'on peut en parler
-	-Yohann Roiron</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Je vote pour celui là
-	-Yohann Roiron
-Bof, on peut faire mieux pour Raphaëlle non ?
-	-Marin Boyet
-genre ?
-	-Adrien Tardieu
-avec la photo ca passe bien
-	-Yohann Roiron</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F43" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>rajouter un compositeur anglais du coup :)
-	-Marin Boyet
-Shakespeare n'était pas compositeur ...
-	-Marin Boyet
-J'ai cherché, il n'y a pas de compositeurs d'opéras anglais connus, c'était pas leur spécialités les opéras :(
-	-Adrien Tardieu
-Henry Purcell
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G49" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>pas très shark son stage non ?
-	-Marin Boyet
-Je voulais faire un jeu de mots avec les requins de la Réunion dont il parle dans la vidéo PR
-	-Adrien Tardieu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G52" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Pas ouf mais idée des vacances aux Maldives
-	-Yohann Roiron</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F54" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Yep okay beaucoup mieux :)
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G54" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>c'est de très très mauvais goût
-	-Marin Boyet
-en vrai je ne trouve pas
-	-Remi Gerard</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F56" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>léger aussi
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F57" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>?? (de Castries ?) impossible aussi
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F65" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>ça me paraît impossible
-	-Marin Boyet</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F73" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>hahaha
+        <t xml:space="preserve">hahaha
 	-Marin Boyet
 mais compliqué à trouver ? il faudrait étoffer ?
 	-Marin Boyet
@@ -346,22 +172,34 @@
 	-Marin Boyet
 Faudrait reformuler et ajoute lexaminatrice de contro mais ça a l'avantage de contribuer à la légende urbaine
 	-Yohann Roiron</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F74" authorId="0">
+    <comment authorId="0" ref="H55">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>j'ai pas compris e_e ?
+        <t xml:space="preserve">Sinon le choisit faudra vérifier qu'on peut en parler
+	-Yohann Roiron</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F51">
+      <text>
+        <t xml:space="preserve">Pas trop osé ?
+	-Yohann Roiron
+Pas mal, on peut peut-être trouver encore mieux
+	-Adrien Tardieu
+Je trouve celui là rigolo en tous cas :p
+	-Marin Boyet</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F9">
+      <text>
+        <t xml:space="preserve">Je vote pour celui là
+	-Yohann Roiron
+Bof, on peut faire mieux pour Raphaëlle non ?
 	-Marin Boyet
-Le lien avec le stage ou avec le pôle interne ? La Birmanie c'est une des plus dure dictatures du monde,  ça aurait permis de dynamiser le pôle interne
+genre ?
+	-Adrien Tardieu
+avec la photo ca passe bien
 	-Yohann Roiron</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -369,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
   <si>
     <t>Nombre de difficultee=1</t>
   </si>
@@ -808,7 +646,7 @@
     <t>Coca-Cola, Belgique, Suisse</t>
   </si>
   <si>
-    <t>A 10km de la frontière alsacienne en S3, en Suisse pour mon premier stage, je pars terminer ma césure en Belgique</t>
+    <t>A 10km de la frontière alsacienne en S3, en Belgique pour mon premier stage, je pars terminer ma césure en Suisse.</t>
   </si>
   <si>
     <t>37 ILHAMI Anas</t>
@@ -844,9 +682,6 @@
     <t xml:space="preserve">Banque mondial, USA </t>
   </si>
   <si>
-    <t xml:space="preserve"> Washington c'est encore mieux que Venise pour un date de 6 mois </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Washington c'est encore mieux que Beyrouth pour un date de 6 mois </t>
   </si>
   <si>
@@ -955,7 +790,7 @@
     <t>50 MASNAOUI Amine</t>
   </si>
   <si>
-    <t xml:space="preserve"> Washington c'est encore mieux que Marrakech pour un date de 6 mois </t>
+    <t xml:space="preserve"> Washington c'est encore mieux que Casablanca pour un date de 6 mois </t>
   </si>
   <si>
     <t>Je suis CEO d'une start-up New Yorkaise depuis 2 ans</t>
@@ -1154,7 +989,7 @@
     <t xml:space="preserve">Singapour </t>
   </si>
   <si>
-    <t xml:space="preserve">Avant je buvais du vin, maintenant je vis à Singapour </t>
+    <t>Je cherche encore le vin qui s'accordera le mieux avec le chicken rice de Singapour</t>
   </si>
   <si>
     <t>69 WANG Yuanhui</t>
@@ -1199,46 +1034,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="7"/>
+      <sz val="7.0"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1268,6 +1098,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF6FA8DC"/>
         <bgColor rgb="FF6FA8DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1319,7 +1155,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1334,422 +1169,124 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="28">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1046" name="Rectangle 22" hidden="1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" customWidth="1"/>
-    <col min="7" max="7" width="34.5" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="9" max="9" width="44" customWidth="1"/>
-    <col min="10" max="10" width="43.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="35.29"/>
+    <col customWidth="1" min="2" max="2" width="36.57"/>
+    <col customWidth="1" min="3" max="3" width="15.43"/>
+    <col customWidth="1" min="4" max="4" width="4.86"/>
+    <col customWidth="1" min="5" max="5" width="15.86"/>
+    <col customWidth="1" min="6" max="6" width="49.71"/>
+    <col customWidth="1" min="7" max="7" width="34.43"/>
+    <col customWidth="1" min="8" max="8" width="26.29"/>
+    <col customWidth="1" min="9" max="9" width="44.0"/>
+    <col customWidth="1" min="10" max="10" width="43.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1785,7 +1322,7 @@
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
     </row>
-    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1823,7 +1360,7 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -1865,7 +1402,7 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
@@ -1905,7 +1442,7 @@
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
     </row>
-    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1950,368 +1487,378 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
     </row>
-    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10">
-        <v>1</v>
+        <v>4.0</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10">
-        <v>1</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="9" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+        <v>24</v>
+      </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C9" s="10">
-        <v>1</v>
+        <v>3.0</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="9" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+        <v>31</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="9" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="9" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.0</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="9" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>130</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
-    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="9" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>134</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="9" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10"/>
+        <v>3.0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3.0</v>
+      </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="19" t="s">
-        <v>165</v>
-      </c>
+      <c r="F15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="9" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="C16" s="10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="9" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>185</v>
-      </c>
+      <c r="F17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="9" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3.0</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="F18" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="9" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10"/>
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2.0</v>
+      </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="12"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="9" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="10"/>
+        <v>4.0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>3.0</v>
+      </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="9" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="12"/>
+        <v>4.0</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C22" s="10">
-        <v>2</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
@@ -2319,10 +1866,10 @@
         <v>80</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D23" s="10">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11" t="s">
@@ -2335,7 +1882,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="9" t="s">
         <v>83</v>
       </c>
@@ -2343,7 +1890,7 @@
         <v>84</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -2355,1150 +1902,1134 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C25" s="10">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>92</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C26" s="10">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="F26" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C27" s="10">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>3.0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>3.0</v>
+      </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="10"/>
+      <c r="F27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="9" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C28" s="10">
-        <v>2</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>3.0</v>
+      </c>
+      <c r="D28" s="10">
+        <v>3.0</v>
+      </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="F28" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="9" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C29" s="10">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>142</v>
-      </c>
+      <c r="F29" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="9" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1.0</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="9" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>3.0</v>
+      </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>158</v>
-      </c>
+      <c r="F31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="9" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="C32" s="10">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>173</v>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="9" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="12">
-        <v>2</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" s="12"/>
+      <c r="F33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="9" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>196</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="9" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="2">
-        <v>2</v>
-      </c>
-      <c r="D35" s="10">
-        <v>3</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I35" s="12"/>
+      <c r="F35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="J35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="9" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="C36" s="10">
-        <v>2</v>
+        <v>4.0</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="9" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="C37" s="10">
-        <v>2</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" s="10"/>
+        <v>129</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="9" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="C38" s="10">
-        <v>2</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>246</v>
+        <v>133</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="9" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="C39" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="9" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C40" s="10">
-        <v>3</v>
-      </c>
-      <c r="D40" s="10">
-        <v>3</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="12"/>
+      <c r="F40" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="9" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="C41" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="F41" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" s="9" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="12">
-        <v>3</v>
-      </c>
-      <c r="D42" s="10"/>
+        <v>147</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>4.0</v>
+      </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="F42" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="9" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="12">
-        <v>3</v>
-      </c>
-      <c r="D43" s="10">
-        <v>3</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H43" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="A44" s="9" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="12">
-        <v>3</v>
-      </c>
-      <c r="D44" s="12">
-        <v>3</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="16" t="s">
-        <v>99</v>
+      <c r="F44" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="A45" s="9" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C45" s="10">
-        <v>3</v>
-      </c>
-      <c r="D45" s="10">
-        <v>3</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="F45" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="A46" s="9" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="2">
-        <v>3</v>
-      </c>
-      <c r="E46" s="10">
-        <v>3</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="17"/>
+        <v>163</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" s="10"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="A47" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C47" s="10">
-        <v>3</v>
+        <v>4.0</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>138</v>
-      </c>
+      <c r="E47" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="A48" s="9" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C48" s="10">
-        <v>3</v>
+        <v>2.0</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="19" t="s">
-        <v>145</v>
-      </c>
+      <c r="E48" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="10"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="A49" s="9" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C49" s="10">
-        <v>3</v>
-      </c>
-      <c r="D49" s="10"/>
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2.0</v>
+      </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>162</v>
-      </c>
+      <c r="F49" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="A50" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="C50" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="19" t="s">
-        <v>178</v>
+      <c r="F50" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="A51" s="9" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C51" s="10">
-        <v>3</v>
+        <v>1.0</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>200</v>
-      </c>
+      <c r="F51" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
     </row>
-    <row r="52" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="52">
       <c r="A52" s="9" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="C52" s="10">
-        <v>3</v>
+        <v>1.0</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="23" t="s">
-        <v>229</v>
+      <c r="F52" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
     </row>
-    <row r="53" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="53">
       <c r="A53" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>235</v>
+        <v>185</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>186</v>
       </c>
       <c r="C53" s="10">
-        <v>3</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="12"/>
+        <v>4.0</v>
+      </c>
+      <c r="D53" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
     </row>
-    <row r="54" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="54">
       <c r="A54" s="9" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C54" s="2">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>240</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C54" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
     </row>
-    <row r="55" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="55">
       <c r="A55" s="9" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C55" s="2">
-        <v>3</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="12"/>
+        <v>2.0</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>195</v>
+      </c>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="56">
       <c r="A56" s="9" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="C56" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
-      <c r="F56" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="F56" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>199</v>
+      </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="57">
       <c r="A57" s="9" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="C57" s="10">
-        <v>3</v>
+        <v>4.0</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="11" t="s">
-        <v>266</v>
+      <c r="F57" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="58">
       <c r="A58" s="9" t="s">
-        <v>267</v>
+        <v>203</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="C58" s="10">
-        <v>3</v>
+        <v>4.0</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="24" t="s">
-        <v>269</v>
-      </c>
+      <c r="F58" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="12"/>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
     </row>
-    <row r="59" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="59">
       <c r="A59" s="9" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="12">
-        <v>4</v>
+        <v>207</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1.0</v>
       </c>
       <c r="D59" s="10"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>16</v>
+      <c r="F59" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
     </row>
-    <row r="60" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="60">
       <c r="A60" s="9" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="12">
-        <v>4</v>
+        <v>211</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2.0</v>
       </c>
       <c r="D60" s="10">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="11" t="s">
-        <v>24</v>
+      <c r="F60" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
     </row>
-    <row r="61" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="61">
       <c r="A61" s="9" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="C61" s="10">
-        <v>4</v>
-      </c>
-      <c r="D61" s="10">
-        <v>3</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="11" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
     </row>
-    <row r="62" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="62">
       <c r="A62" s="9" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="C62" s="10">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="10">
-        <v>3</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
     </row>
-    <row r="63" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="63">
       <c r="A63" s="9" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="C63" s="10">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D63" s="10">
-        <v>4</v>
+        <v>3.0</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+        <v>222</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>225</v>
+      </c>
       <c r="J63" s="12"/>
     </row>
-    <row r="64" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="64">
       <c r="A64" s="9" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="C64" s="10">
-        <v>4</v>
+        <v>3.0</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="12"/>
+      <c r="F64" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="65">
       <c r="A65" s="9" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="2">
-        <v>4</v>
+        <v>231</v>
+      </c>
+      <c r="C65" s="10">
+        <v>2.0</v>
       </c>
       <c r="D65" s="10">
-        <v>4</v>
+        <v>2.0</v>
       </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>149</v>
-      </c>
+      <c r="F65" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="66">
       <c r="A66" s="9" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="C66" s="10">
-        <v>4</v>
+        <v>3.0</v>
       </c>
       <c r="D66" s="10"/>
-      <c r="E66" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>169</v>
+      <c r="E66" s="10"/>
+      <c r="F66" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="67">
       <c r="A67" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" s="12">
-        <v>4</v>
-      </c>
-      <c r="D67" s="12">
-        <v>4</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>189</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" ht="39" x14ac:dyDescent="0.15">
+    <row r="68">
       <c r="A68" s="9" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C68" s="12">
-        <v>4</v>
-      </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="G68" s="12"/>
+        <v>166</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="H68" s="10"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" ht="39" x14ac:dyDescent="0.15">
+    <row r="69">
       <c r="A69" s="9" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C69" s="10">
-        <v>4</v>
+        <v>2.0</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="12"/>
+      <c r="F69" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="70">
       <c r="A70" s="9" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="C70" s="10">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="F70" s="24" t="s">
+        <v>248</v>
+      </c>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" ht="65" x14ac:dyDescent="0.15">
+    <row r="71">
       <c r="A71" s="9" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C71" s="10">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="12"/>
+      <c r="F71" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>253</v>
+      </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="72">
       <c r="A72" s="9" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="C72" s="10">
-        <v>4</v>
-      </c>
-      <c r="D72" s="12">
-        <v>3</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>226</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="73">
       <c r="A73" s="9" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C73" s="10">
-        <v>4</v>
+        <v>3.0</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="23" t="s">
-        <v>249</v>
-      </c>
+      <c r="F73" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="74">
       <c r="A74" s="9" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C74" s="10">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>254</v>
-      </c>
+      <c r="F74" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
       <c r="J74" s="12"/>
     </row>
-    <row r="75" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="75">
       <c r="A75" s="9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C75" s="10">
-        <v>4</v>
+        <v>3.0</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="11" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
     </row>
-    <row r="76" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="76">
       <c r="A76" s="9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C76" s="10">
-        <v>4</v>
+        <v>3.0</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G76" s="12"/>
+      <c r="F76" s="25" t="s">
+        <v>268</v>
+      </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
     </row>
-    <row r="77" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="77">
       <c r="A77" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>271</v>
-      </c>
       <c r="C77" s="10">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="78">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+    <row r="79">
       <c r="A79" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3507,13 +3038,8 @@
       <c r="F79" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:AE23">
-    <sortState ref="A6:AE77">
-      <sortCondition ref="C5:C77"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <autoFilter ref="$A$5:$AE$23"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Qui est-ce.xlsx
+++ b/Qui est-ce.xlsx
@@ -1,14 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yohann/Dropbox/workspace/cesure/vendome/vendomeCesure/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$5:$AE$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$AF$23</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -18,87 +32,208 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F55">
+    <comment ref="G8" authorId="0">
       <text>
-        <t xml:space="preserve">C'est raciste, il est de Casablanca il me semble ;)
-	-Marin Boyet</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Très bon
+	-Marin Boyet
+C'est super simple, c'est un 1 même
+	-Remi Gerard</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F44">
+    <comment ref="H9" authorId="0">
       <text>
-        <t xml:space="preserve">okay pour mettre la même description aux deux
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Long et pas franchement personnel
 	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F42">
+    <comment ref="H12" authorId="0">
       <text>
-        <t xml:space="preserve">ça me paraît impossible
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>C'est pas un peu indélicat quand même ?
 	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G35">
+    <comment ref="I14" authorId="0">
       <text>
-        <t xml:space="preserve">Ok pour l'idée de fond mais la tournure est pas fofolle non ?
-	-Marin Boyet</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Réf aux rushs zarb de peluche et de déguisement
+	-Yohann Roiron
+ah, au début je croyais que tu avais confondu PR et Vidéo Lucky...
+	-Adrien Tardieu
+Haha Can be both
+	-Yohann Roiron
+:p
+	-Remi Gerard</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G33">
+    <comment ref="G16" authorId="0">
       <text>
-        <t xml:space="preserve">C'est pas un peu indélicat quand même ?
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Pas trop osé ?
+	-Yohann Roiron
+Pas mal, on peut peut-être trouver encore mieux
+	-Adrien Tardieu
+Je trouve celui là rigolo en tous cas :p
 	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F24">
+    <comment ref="G20" authorId="0">
       <text>
-        <t xml:space="preserve">Un peu tiré par les cheveux quand même, sans l'anecdote je suggère juste de trouver une blague sur son caractère étourdi
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>C'est un peu gratuit
+	-Adrien Tardieu
+Mais tellement vrai :p ?
 	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F75">
+    <comment ref="G22" authorId="0">
       <text>
-        <t xml:space="preserve">?? (de Castries ?) impossible aussi
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Pareil, on doit pouvoir trouver mieux sur Charles !
+	-Marin Boyet
+genre ? :)
+	-Adrien Tardieu
+finalement oK
 	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F71">
+    <comment ref="G24" authorId="0">
       <text>
-        <t xml:space="preserve">j'ai pas compris e_e ?
-	-Marin Boyet
-Le lien avec le stage ou avec le pôle interne ? La Birmanie c'est une des plus dure dictatures du monde,  ça aurait permis de dynamiser le pôle interne
-	-Yohann Roiron</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Un peu tiré par les cheveux quand même, sans l'anecdote je suggère juste de trouver une blague sur son caractère étourdi
+	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F67">
+    <comment ref="H28" authorId="0">
       <text>
-        <t xml:space="preserve">Yep okay beaucoup mieux :)
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Ok pour l'idée de fond mais la tournure est pas fofolle non ?
 	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F73">
+    <comment ref="G31" authorId="0">
       <text>
-        <t xml:space="preserve">léger aussi
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>okay pour mettre la même description aux deux
 	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G67">
+    <comment ref="G34" authorId="0">
       <text>
-        <t xml:space="preserve">c'est de très très mauvais goût
-	-Marin Boyet
-en vrai je ne trouve pas
-	-Remi Gerard</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>C'est raciste, il est de Casablanca il me semble ;)
+	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G45">
+    <comment ref="I34" authorId="0">
       <text>
-        <t xml:space="preserve">pas très shark son stage non ?
-	-Marin Boyet
-Je voulais faire un jeu de mots avec les requins de la Réunion dont il parle dans la vidéo PR
-	-Adrien Tardieu</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Sinon le choisit faudra vérifier qu'on peut en parler
+	-Yohann Roiron</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F27">
+    <comment ref="G39" authorId="0">
       <text>
-        <t xml:space="preserve">rajouter un compositeur anglais du coup :)
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Je vote pour celui là
+	-Yohann Roiron
+Bof, on peut faire mieux pour Raphaëlle non ?
+	-Marin Boyet
+genre ?
+	-Adrien Tardieu
+avec la photo ca passe bien
+	-Yohann Roiron</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>rajouter un compositeur anglais du coup :)
 	-Marin Boyet
 Shakespeare n'était pas compositeur ...
 	-Marin Boyet
@@ -106,61 +241,113 @@
 	-Adrien Tardieu
 Henry Purcell
 	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F19">
+    <comment ref="H49" authorId="0">
       <text>
-        <t xml:space="preserve">Pareil, on doit pouvoir trouver mieux sur Charles !
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>pas très shark son stage non ?
 	-Marin Boyet
-genre ? :)
-	-Adrien Tardieu
-finalement oK
-	-Marin Boyet</t>
+Je voulais faire un jeu de mots avec les requins de la Réunion dont il parle dans la vidéo PR
+	-Adrien Tardieu</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G16">
+    <comment ref="H52" authorId="0">
       <text>
-        <t xml:space="preserve">Long et pas franchement personnel
-	-Marin Boyet</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Pas ouf mais idée des vacances aux Maldives
+	-Yohann Roiron</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F12">
+    <comment ref="G54" authorId="0">
       <text>
-        <t xml:space="preserve">C'est un peu gratuit
-	-Adrien Tardieu
-Mais tellement vrai :p ?
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Yep okay beaucoup mieux :)
 	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G64">
+    <comment ref="H54" authorId="0">
       <text>
-        <t xml:space="preserve">Pas ouf mais idée des vacances aux Maldives
-	-Yohann Roiron</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>c'est de très très mauvais goût
+	-Marin Boyet
+en vrai je ne trouve pas
+	-Remi Gerard</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H38">
+    <comment ref="G56" authorId="0">
       <text>
-        <t xml:space="preserve">Réf aux rushs zarb de peluche et de déguisement
-	-Yohann Roiron
-ah, au début je croyais que tu avais confondu PR et Vidéo Lucky...
-	-Adrien Tardieu
-Haha Can be both
-	-Yohann Roiron
-:p
-	-Remi Gerard</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>léger aussi
+	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F14">
+    <comment ref="G57" authorId="0">
       <text>
-        <t xml:space="preserve">Très bon
-	-Marin Boyet
-C'est super simple, c'est un 1 même
-	-Remi Gerard</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>?? (de Castries ?) impossible aussi
+	-Marin Boyet</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F70">
+    <comment ref="G65" authorId="0">
       <text>
-        <t xml:space="preserve">hahaha
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>ça me paraît impossible
+	-Marin Boyet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G73" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>hahaha
 	-Marin Boyet
 mais compliqué à trouver ? il faudrait étoffer ?
 	-Marin Boyet
@@ -172,34 +359,22 @@
 	-Marin Boyet
 Faudrait reformuler et ajoute lexaminatrice de contro mais ça a l'avantage de contribuer à la légende urbaine
 	-Yohann Roiron</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H55">
+    <comment ref="G74" authorId="0">
       <text>
-        <t xml:space="preserve">Sinon le choisit faudra vérifier qu'on peut en parler
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>j'ai pas compris e_e ?
+	-Marin Boyet
+Le lien avec le stage ou avec le pôle interne ? La Birmanie c'est une des plus dure dictatures du monde,  ça aurait permis de dynamiser le pôle interne
 	-Yohann Roiron</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F51">
-      <text>
-        <t xml:space="preserve">Pas trop osé ?
-	-Yohann Roiron
-Pas mal, on peut peut-être trouver encore mieux
-	-Adrien Tardieu
-Je trouve celui là rigolo en tous cas :p
-	-Marin Boyet</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F9">
-      <text>
-        <t xml:space="preserve">Je vote pour celui là
-	-Yohann Roiron
-Bof, on peut faire mieux pour Raphaëlle non ?
-	-Marin Boyet
-genre ?
-	-Adrien Tardieu
-avec la photo ca passe bien
-	-Yohann Roiron</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -207,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="345">
   <si>
     <t>Nombre de difficultee=1</t>
   </si>
@@ -592,9 +767,6 @@
     <t>Je n'ai pas enregistré mon premier stage de césure sur SGS lol #VICALIFE</t>
   </si>
   <si>
-    <t>32 DUPRE DE LA TOUR Marie-Alix</t>
-  </si>
-  <si>
     <t>Vinci, Indonésie</t>
   </si>
   <si>
@@ -1029,38 +1201,274 @@
   </si>
   <si>
     <t>Araújo	Luíza</t>
+  </si>
+  <si>
+    <t>14barnab</t>
+  </si>
+  <si>
+    <t>14barrou</t>
+  </si>
+  <si>
+    <t>14benham</t>
+  </si>
+  <si>
+    <t>14bohn</t>
+  </si>
+  <si>
+    <t>14boyet</t>
+  </si>
+  <si>
+    <t>14courto</t>
+  </si>
+  <si>
+    <t>14deperc</t>
+  </si>
+  <si>
+    <t>14gerard</t>
+  </si>
+  <si>
+    <t>14kneib</t>
+  </si>
+  <si>
+    <t>14alarro</t>
+  </si>
+  <si>
+    <t>14lauby</t>
+  </si>
+  <si>
+    <t>14allard</t>
+  </si>
+  <si>
+    <t>14beltaifa</t>
+  </si>
+  <si>
+    <t>14pereir</t>
+  </si>
+  <si>
+    <t>14chetcu</t>
+  </si>
+  <si>
+    <t>14colin</t>
+  </si>
+  <si>
+    <t>14corral</t>
+  </si>
+  <si>
+    <t>14demale</t>
+  </si>
+  <si>
+    <t>14demay</t>
+  </si>
+  <si>
+    <t>14griffe</t>
+  </si>
+  <si>
+    <t>14jennep</t>
+  </si>
+  <si>
+    <t>14khater</t>
+  </si>
+  <si>
+    <t>14landai</t>
+  </si>
+  <si>
+    <t>14masnao</t>
+  </si>
+  <si>
+    <t>14musset</t>
+  </si>
+  <si>
+    <t>14najm</t>
+  </si>
+  <si>
+    <t>14qiu</t>
+  </si>
+  <si>
+    <t>14sentis</t>
+  </si>
+  <si>
+    <t>14barbie</t>
+  </si>
+  <si>
+    <t>14billau</t>
+  </si>
+  <si>
+    <t>14breill</t>
+  </si>
+  <si>
+    <t>14cheban</t>
+  </si>
+  <si>
+    <t>14colvez</t>
+  </si>
+  <si>
+    <t>14coppea</t>
+  </si>
+  <si>
+    <t>14dharco</t>
+  </si>
+  <si>
+    <t>14deveyr</t>
+  </si>
+  <si>
+    <t>14glaser</t>
+  </si>
+  <si>
+    <t>14guan</t>
+  </si>
+  <si>
+    <t>14kinder</t>
+  </si>
+  <si>
+    <t>14landry</t>
+  </si>
+  <si>
+    <t>14melki</t>
+  </si>
+  <si>
+    <t>14pelliz</t>
+  </si>
+  <si>
+    <t>14roiron</t>
+  </si>
+  <si>
+    <t>14rousse</t>
+  </si>
+  <si>
+    <t>14savu</t>
+  </si>
+  <si>
+    <t>14vial</t>
+  </si>
+  <si>
+    <t>14xiong</t>
+  </si>
+  <si>
+    <t>14yao</t>
+  </si>
+  <si>
+    <t>14aitahm</t>
+  </si>
+  <si>
+    <t>14amabil</t>
+  </si>
+  <si>
+    <t>14brunet</t>
+  </si>
+  <si>
+    <t>14chaumon</t>
+  </si>
+  <si>
+    <t>14chlieh</t>
+  </si>
+  <si>
+    <t>14dubois</t>
+  </si>
+  <si>
+    <t>14ilhami</t>
+  </si>
+  <si>
+    <t>14kopp</t>
+  </si>
+  <si>
+    <t>14lawkou</t>
+  </si>
+  <si>
+    <t>14lolom</t>
+  </si>
+  <si>
+    <t>14meunie</t>
+  </si>
+  <si>
+    <t>14meyer</t>
+  </si>
+  <si>
+    <t>14ngom</t>
+  </si>
+  <si>
+    <t>14noctur</t>
+  </si>
+  <si>
+    <t>14tardie</t>
+  </si>
+  <si>
+    <t>14thiery</t>
+  </si>
+  <si>
+    <t>14ved</t>
+  </si>
+  <si>
+    <t>14wang</t>
+  </si>
+  <si>
+    <t>14yue</t>
+  </si>
+  <si>
+    <t>14meynie</t>
+  </si>
+  <si>
+    <t>14duprel</t>
+  </si>
+  <si>
+    <t>32 DUPRE LA TOUR Marie-Alix</t>
+  </si>
+  <si>
+    <t>14brisso</t>
+  </si>
+  <si>
+    <t>14beaufil</t>
+  </si>
+  <si>
+    <t>14vlaigle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="7.0"/>
+      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1068,7 +1476,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1155,6 +1563,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1169,138 +1578,515 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1047" name="Rectangle 23" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 23"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.29"/>
-    <col customWidth="1" min="2" max="2" width="36.57"/>
-    <col customWidth="1" min="3" max="3" width="15.43"/>
-    <col customWidth="1" min="4" max="4" width="4.86"/>
-    <col customWidth="1" min="5" max="5" width="15.86"/>
-    <col customWidth="1" min="6" max="6" width="49.71"/>
-    <col customWidth="1" min="7" max="7" width="34.43"/>
-    <col customWidth="1" min="8" max="8" width="26.29"/>
-    <col customWidth="1" min="9" max="9" width="44.0"/>
-    <col customWidth="1" min="10" max="10" width="43.43"/>
+    <col min="1" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" customWidth="1"/>
+    <col min="8" max="8" width="34.5" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="44" customWidth="1"/>
+    <col min="11" max="11" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2">
-        <f>COUNTIF(C$6:C$82,"=1")</f>
+      <c r="I1" s="2">
+        <f>COUNTIF(D$6:D$82,"=1")</f>
         <v>13</v>
       </c>
-      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -1321,24 +2107,25 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
-    </row>
-    <row r="2">
+      <c r="AF1" s="4"/>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
-        <f>COUNTIF(C$6:C$82,"=2")</f>
+      <c r="I2" s="2">
+        <f>COUNTIF(D$6:D$82,"=2")</f>
         <v>20</v>
       </c>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -1359,28 +2146,29 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-    </row>
-    <row r="3">
+      <c r="AF2" s="4"/>
+    </row>
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
-        <f>COUNTIF(C$6:C$82,"=3")</f>
+      <c r="I3" s="2">
+        <f>COUNTIF(D$6:D$82,"=3")</f>
         <v>20</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1401,26 +2189,27 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
-    </row>
-    <row r="4">
+      <c r="AF3" s="4"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2">
-        <f>COUNTIF(C$6:C$82,"=4")</f>
+      <c r="I4" s="2">
+        <f>COUNTIF(D$6:D$82,"=4")</f>
         <v>19</v>
       </c>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1441,31 +2230,32 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
-    </row>
-    <row r="5">
+      <c r="AF4" s="4"/>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1486,1560 +2276,1785 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-    </row>
-    <row r="6">
+      <c r="AF5" s="8"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="10"/>
+        <v>272</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="12"/>
-    </row>
-    <row r="7">
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>273</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8">
+      <c r="F7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="10">
-        <v>4.0</v>
+        <v>274</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-    </row>
-    <row r="9">
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>275</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="12"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="J9" s="12"/>
-    </row>
-    <row r="10">
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>276</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-    </row>
-    <row r="11">
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>277</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>35</v>
+      <c r="F11" s="10"/>
+      <c r="G11" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="12"/>
-    </row>
-    <row r="12">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>278</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-    </row>
-    <row r="13">
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>42</v>
+        <v>340</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-    </row>
-    <row r="14">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+        <v>279</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="J14" s="12"/>
-    </row>
-    <row r="15">
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3.0</v>
+        <v>280</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="D15" s="10">
-        <v>3.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-    </row>
-    <row r="16">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>281</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-    </row>
-    <row r="17">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>282</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="J17" s="12"/>
-    </row>
-    <row r="18">
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>339</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19">
+      <c r="G18" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2.0</v>
+        <v>283</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20">
+      <c r="F19" s="10"/>
+      <c r="G19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="10">
-        <v>4.0</v>
+        <v>343</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D20" s="10">
-        <v>3.0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="J20" s="12"/>
-    </row>
-    <row r="21">
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>75</v>
+        <v>284</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-    </row>
-    <row r="22">
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="12"/>
+        <v>342</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="J22" s="12"/>
-    </row>
-    <row r="23">
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="10">
-        <v>2.0</v>
-      </c>
       <c r="D23" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-    </row>
-    <row r="24">
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="12"/>
-    </row>
-    <row r="25">
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="10">
-        <v>4.0</v>
+        <v>287</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D25" s="10">
-        <v>4.0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="F25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="J25" s="12"/>
-    </row>
-    <row r="26">
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>92</v>
+        <v>288</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-    </row>
-    <row r="27">
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="10">
-        <v>3.0</v>
+        <v>289</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D27" s="10">
-        <v>3.0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="12"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="10"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-    </row>
-    <row r="28">
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="10">
-        <v>3.0</v>
+        <v>290</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D28" s="10">
-        <v>3.0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29">
+      <c r="F28" s="10"/>
+      <c r="G28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>291</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="J29" s="12"/>
-    </row>
-    <row r="30">
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>292</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="F30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="J30" s="12"/>
-    </row>
-    <row r="31">
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D31" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+        <v>293</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-    </row>
-    <row r="32">
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="10"/>
+        <v>344</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="12"/>
+      <c r="F32" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-    </row>
-    <row r="33">
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>115</v>
+        <v>294</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-    </row>
-    <row r="34">
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35">
+        <v>295</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>123</v>
+        <v>296</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10">
+        <v>3</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="J35" s="12"/>
-    </row>
-    <row r="36">
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>297</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="12"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
-    </row>
-    <row r="37">
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="12"/>
+        <v>298</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="10"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
-    </row>
-    <row r="38">
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="10"/>
+        <v>299</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="12"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>244</v>
+      </c>
       <c r="J38" s="12"/>
-    </row>
-    <row r="39">
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D39" s="10"/>
+        <v>300</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="10">
+        <v>3</v>
+      </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="J39" s="12"/>
-    </row>
-    <row r="40">
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>142</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="10">
+        <v>3</v>
+      </c>
+      <c r="E40" s="10">
+        <v>3</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="10"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
-    </row>
-    <row r="41">
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D41" s="10"/>
+        <v>302</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10">
+        <v>3</v>
+      </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42">
+      <c r="F41" s="10"/>
+      <c r="G41" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D42" s="10">
-        <v>4.0</v>
+        <v>303</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="12">
+        <v>3</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="J42" s="12"/>
-    </row>
-    <row r="43">
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>154</v>
+        <v>304</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="12">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>3</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-    </row>
-    <row r="44">
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H44" s="12"/>
+        <v>305</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="12">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12">
+        <v>3</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-    </row>
-    <row r="45">
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>161</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="10">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10">
+        <v>3</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="12"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-    </row>
-    <row r="46">
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="12"/>
+        <v>307</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="10">
+        <v>3</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="12"/>
-    </row>
-    <row r="47">
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+        <v>308</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="10">
+        <v>3</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
-    </row>
-    <row r="48">
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="12"/>
+        <v>309</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="10">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
-    </row>
-    <row r="49">
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="10">
-        <v>2.0</v>
+        <v>310</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="D49" s="10">
-        <v>2.0</v>
+        <v>3</v>
       </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="10"/>
+      <c r="G49" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="B50" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="D50" s="10">
+        <v>3</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="12"/>
+      <c r="H50" s="10"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
-    </row>
-    <row r="51">
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="10"/>
+        <v>312</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="10">
+        <v>3</v>
+      </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="J51" s="12"/>
-    </row>
-    <row r="52">
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="10"/>
+        <v>313</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I52" s="12"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>228</v>
+      </c>
       <c r="J52" s="12"/>
-    </row>
-    <row r="53">
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="10">
-        <v>4.0</v>
+        <v>232</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="D53" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>188</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H53" s="10"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
-    </row>
-    <row r="54">
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+        <v>315</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
-    </row>
-    <row r="55">
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>195</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="10"/>
       <c r="J55" s="12"/>
-    </row>
-    <row r="56">
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C56" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D56" s="10"/>
+        <v>317</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" s="10">
+        <v>3</v>
+      </c>
       <c r="E56" s="10"/>
-      <c r="F56" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>199</v>
-      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
-    </row>
-    <row r="57">
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C57" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D57" s="10"/>
+        <v>318</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="10">
+        <v>3</v>
+      </c>
       <c r="E57" s="10"/>
-      <c r="F57" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="G57" s="12"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
-    </row>
-    <row r="58">
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C58" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D58" s="10"/>
+        <v>319</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" s="10">
+        <v>3</v>
+      </c>
       <c r="E58" s="10"/>
-      <c r="F58" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="25" t="s">
+        <v>267</v>
+      </c>
       <c r="I58" s="12"/>
       <c r="J58" s="12"/>
-    </row>
-    <row r="59">
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="F59" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="H59" s="12"/>
+        <v>320</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="12">
+        <v>4</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
-    </row>
-    <row r="60">
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="D60" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I60" s="12"/>
+        <v>321</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="12">
+        <v>4</v>
+      </c>
+      <c r="E60" s="10">
+        <v>3</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="J60" s="12"/>
-    </row>
-    <row r="61">
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G61" s="12"/>
+        <v>322</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="10">
+        <v>4</v>
+      </c>
+      <c r="E61" s="10">
+        <v>3</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
-    </row>
-    <row r="62">
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D62" s="10"/>
+        <v>323</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="10">
+        <v>4</v>
+      </c>
       <c r="E62" s="10"/>
-      <c r="F62" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="F62" s="10">
+        <v>3</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
-    </row>
-    <row r="63">
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" s="10">
-        <v>4.0</v>
+        <v>324</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D63" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="J63" s="12"/>
-    </row>
-    <row r="64">
+        <v>4</v>
+      </c>
+      <c r="E63" s="10">
+        <v>4</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C64" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D64" s="10"/>
+        <v>325</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="10">
+        <v>4</v>
+      </c>
       <c r="E64" s="10"/>
-      <c r="F64" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>229</v>
-      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H64" s="10"/>
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
-    </row>
-    <row r="65">
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C65" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D65" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+        <v>326</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4</v>
+      </c>
+      <c r="E65" s="10">
+        <v>4</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
-    </row>
-    <row r="66">
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C66" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D66" s="10"/>
+        <v>327</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="10">
+        <v>4</v>
+      </c>
       <c r="E66" s="10"/>
-      <c r="F66" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="G66" s="12"/>
+      <c r="F66" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>167</v>
+      </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
-    </row>
-    <row r="67">
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+        <v>328</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="12">
+        <v>4</v>
+      </c>
+      <c r="E67" s="12">
+        <v>4</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="J67" s="12"/>
-    </row>
-    <row r="68">
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="12"/>
+        <v>329</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="12">
+        <v>4</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="10"/>
       <c r="J68" s="12"/>
-    </row>
-    <row r="69">
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D69" s="10"/>
+        <v>330</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="10">
+        <v>4</v>
+      </c>
       <c r="E69" s="10"/>
-      <c r="F69" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>245</v>
-      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H69" s="10"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
-    </row>
-    <row r="70">
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D70" s="10"/>
+        <v>331</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="10">
+        <v>4</v>
+      </c>
       <c r="E70" s="10"/>
-      <c r="F70" s="24" t="s">
-        <v>248</v>
-      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="12"/>
-    </row>
-    <row r="71">
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="1:11" ht="26" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="10">
+        <v>4</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+    </row>
+    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+      <c r="A72" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="10">
+        <v>4</v>
+      </c>
+      <c r="E72" s="12">
+        <v>3</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="K72" s="12"/>
+    </row>
+    <row r="73" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+      <c r="A73" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="10">
+        <v>4</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+    </row>
+    <row r="74" spans="1:11" ht="65" x14ac:dyDescent="0.15">
+      <c r="A74" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="D74" s="10">
+        <v>4</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C71" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10" t="s">
+      <c r="H74" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="I74" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="H71" s="10" t="s">
+      <c r="K74" s="12"/>
+    </row>
+    <row r="75" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+      <c r="A75" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J71" s="12"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="s">
+      <c r="B75" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="D75" s="10">
+        <v>4</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C72" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C73" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C74" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C75" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="12"/>
-    </row>
-    <row r="76">
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C76" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D76" s="10"/>
+        <v>337</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D76" s="10">
+        <v>4</v>
+      </c>
       <c r="E76" s="10"/>
-      <c r="F76" s="25" t="s">
-        <v>268</v>
+      <c r="F76" s="10"/>
+      <c r="G76" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
-    </row>
-    <row r="77">
+      <c r="K76" s="12"/>
+    </row>
+    <row r="77" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="D77" s="10">
+        <v>4</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C77" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="12"/>
-    </row>
-    <row r="78">
+      <c r="K77" s="12"/>
+    </row>
+    <row r="78" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-    </row>
-    <row r="79">
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$5:$AE$23"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <autoFilter ref="A5:AF23">
+    <sortState ref="A6:AF77">
+      <sortCondition ref="D5:D77"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>